--- a/Code/Results/Cases/Case_4_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8859010101985518</v>
+        <v>0.7047088305883165</v>
       </c>
       <c r="C2">
-        <v>0.08976886320076716</v>
+        <v>0.05531215961917724</v>
       </c>
       <c r="D2">
-        <v>0.273122419635385</v>
+        <v>0.5160540542205894</v>
       </c>
       <c r="E2">
-        <v>0.06720087172973699</v>
+        <v>0.166466822983935</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008496080123354677</v>
+        <v>0.002565318543423551</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8267907387706899</v>
+        <v>1.769446562148353</v>
       </c>
       <c r="J2">
-        <v>0.02969882972473314</v>
+        <v>0.06393585962438664</v>
       </c>
       <c r="K2">
-        <v>0.7931353954469955</v>
+        <v>0.4283934247583829</v>
       </c>
       <c r="L2">
-        <v>0.2223938360876048</v>
+        <v>0.4326497763752783</v>
       </c>
       <c r="M2">
-        <v>0.2167361196823805</v>
+        <v>0.2634262287300082</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.622591255314916</v>
+        <v>7.512710118798338</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7727523210766662</v>
+        <v>0.6759414607001304</v>
       </c>
       <c r="C3">
-        <v>0.0830653210518193</v>
+        <v>0.05298769355981392</v>
       </c>
       <c r="D3">
-        <v>0.2580575496325253</v>
+        <v>0.5147598999010512</v>
       </c>
       <c r="E3">
-        <v>0.06651003755168894</v>
+        <v>0.1669860101378031</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008539251698792045</v>
+        <v>0.002568147267074873</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8317857858758231</v>
+        <v>1.779041509962653</v>
       </c>
       <c r="J3">
-        <v>0.02969137508245456</v>
+        <v>0.06393023730926828</v>
       </c>
       <c r="K3">
-        <v>0.6887105734990655</v>
+        <v>0.3999517337794174</v>
       </c>
       <c r="L3">
-        <v>0.208492017259843</v>
+        <v>0.4311455799168655</v>
       </c>
       <c r="M3">
-        <v>0.1925878951936717</v>
+        <v>0.2581172831593364</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.605420058230834</v>
+        <v>7.545669195372938</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7036405628444413</v>
+        <v>0.658559278395245</v>
       </c>
       <c r="C4">
-        <v>0.07893917527322714</v>
+        <v>0.05154171224981496</v>
       </c>
       <c r="D4">
-        <v>0.2491088421325571</v>
+        <v>0.5141647700995122</v>
       </c>
       <c r="E4">
-        <v>0.06614932508385252</v>
+        <v>0.1673510313855324</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008566661086610166</v>
+        <v>0.002569978076573484</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.835939914981779</v>
+        <v>1.785551347098846</v>
       </c>
       <c r="J4">
-        <v>0.0296894874595619</v>
+        <v>0.06392772947632075</v>
       </c>
       <c r="K4">
-        <v>0.6248116103475923</v>
+        <v>0.3826363336771266</v>
       </c>
       <c r="L4">
-        <v>0.2001812128028746</v>
+        <v>0.4303803731871554</v>
       </c>
       <c r="M4">
-        <v>0.1779061507135182</v>
+        <v>0.2549653554539937</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.599905337285776</v>
+        <v>7.568729202445525</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6755559980336727</v>
+        <v>0.6515471687336856</v>
       </c>
       <c r="C5">
-        <v>0.0772544415353309</v>
+        <v>0.05094775534919194</v>
       </c>
       <c r="D5">
-        <v>0.2455345678549889</v>
+        <v>0.5139725344370589</v>
       </c>
       <c r="E5">
-        <v>0.06601790380960537</v>
+        <v>0.1675114340736137</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008578061288483806</v>
+        <v>0.002570747844054146</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.837897918145547</v>
+        <v>1.78835983004538</v>
       </c>
       <c r="J5">
-        <v>0.0296893796795823</v>
+        <v>0.06392694601569548</v>
       </c>
       <c r="K5">
-        <v>0.5988162152519578</v>
+        <v>0.375617817865276</v>
       </c>
       <c r="L5">
-        <v>0.1968483600886799</v>
+        <v>0.4301084824219146</v>
       </c>
       <c r="M5">
-        <v>0.1719567381076885</v>
+        <v>0.2537081612777641</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.598878882240342</v>
+        <v>7.578836861512031</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6708970135046854</v>
+        <v>0.6503871351341672</v>
       </c>
       <c r="C6">
-        <v>0.07697447281199743</v>
+        <v>0.05084884512908161</v>
       </c>
       <c r="D6">
-        <v>0.2449453404431807</v>
+        <v>0.5139436545113512</v>
       </c>
       <c r="E6">
-        <v>0.06599701098135213</v>
+        <v>0.1675387734466902</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008579968324169767</v>
+        <v>0.002570877096760862</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8382388258131179</v>
+        <v>1.788835582929291</v>
       </c>
       <c r="J6">
-        <v>0.02968940132112596</v>
+        <v>0.06392683035859648</v>
       </c>
       <c r="K6">
-        <v>0.5945020462230417</v>
+        <v>0.3744546861184261</v>
       </c>
       <c r="L6">
-        <v>0.1962981195519973</v>
+        <v>0.4300657505827061</v>
       </c>
       <c r="M6">
-        <v>0.1709707814591184</v>
+        <v>0.2535010545641043</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.59878094216063</v>
+        <v>7.580558163427241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7032614999192788</v>
+        <v>0.6584644212804562</v>
       </c>
       <c r="C7">
-        <v>0.07891646866085722</v>
+        <v>0.05153372099240272</v>
       </c>
       <c r="D7">
-        <v>0.2490603493797749</v>
+        <v>0.514161973778954</v>
       </c>
       <c r="E7">
-        <v>0.06614749013665744</v>
+        <v>0.1673531474118519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008566813895145737</v>
+        <v>0.002569988362025823</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.835965258217648</v>
+        <v>1.785588592784546</v>
       </c>
       <c r="J7">
-        <v>0.02968948334664923</v>
+        <v>0.06392771794362684</v>
       </c>
       <c r="K7">
-        <v>0.6244608634153508</v>
+        <v>0.3825415264671079</v>
       </c>
       <c r="L7">
-        <v>0.2001360501473854</v>
+        <v>0.4303765445194969</v>
       </c>
       <c r="M7">
-        <v>0.1778257830354946</v>
+        <v>0.2549482900082296</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.599886607046784</v>
+        <v>7.568862640150172</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8468047520741493</v>
+        <v>0.6947318400091547</v>
       </c>
       <c r="C8">
-        <v>0.08745912261036182</v>
+        <v>0.05451457880499078</v>
       </c>
       <c r="D8">
-        <v>0.2678634761525416</v>
+        <v>0.5155664982224692</v>
       </c>
       <c r="E8">
-        <v>0.06694926178617244</v>
+        <v>0.1666362578034413</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008510780885477999</v>
+        <v>0.002566274427981999</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8282823224565163</v>
+        <v>1.772626616532158</v>
       </c>
       <c r="J8">
-        <v>0.02969569178745513</v>
+        <v>0.06393372568238309</v>
       </c>
       <c r="K8">
-        <v>0.7570775994972507</v>
+        <v>0.4185562941217711</v>
       </c>
       <c r="L8">
-        <v>0.2175521219278878</v>
+        <v>0.4320983244575274</v>
       </c>
       <c r="M8">
-        <v>0.2083777563797362</v>
+        <v>0.2615734138294705</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.615600019160922</v>
+        <v>7.523488880318183</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.131753228060546</v>
+        <v>0.7680610011598219</v>
       </c>
       <c r="C9">
-        <v>0.104167461172409</v>
+        <v>0.06021119973310363</v>
       </c>
       <c r="D9">
-        <v>0.3072870817975542</v>
+        <v>0.5198988579669503</v>
       </c>
       <c r="E9">
-        <v>0.06904362077627013</v>
+        <v>0.1655961962026158</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008407871547017334</v>
+        <v>0.002559733751965531</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8222339657937852</v>
+        <v>1.752109713258619</v>
       </c>
       <c r="J9">
-        <v>0.02972995170824522</v>
+        <v>0.06395295652128663</v>
       </c>
       <c r="K9">
-        <v>1.019408026677439</v>
+        <v>0.4903385870037482</v>
       </c>
       <c r="L9">
-        <v>0.2536208912062676</v>
+        <v>0.4367269990359972</v>
       </c>
       <c r="M9">
-        <v>0.2695916898608282</v>
+        <v>0.2754153343532906</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.688398966322609</v>
+        <v>7.45688444170591</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.344105260753935</v>
+        <v>0.8232597940341293</v>
       </c>
       <c r="C10">
-        <v>0.1164722614040272</v>
+        <v>0.06430605651597432</v>
       </c>
       <c r="D10">
-        <v>0.3380464594611254</v>
+        <v>0.5240384370553102</v>
       </c>
       <c r="E10">
-        <v>0.0709281398807029</v>
+        <v>0.1650535948620337</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008336241680599581</v>
+        <v>0.002555376375562239</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8238666129598471</v>
+        <v>1.740016392955887</v>
       </c>
       <c r="J10">
-        <v>0.02976974238139185</v>
+        <v>0.06397157426810374</v>
       </c>
       <c r="K10">
-        <v>1.214339765051875</v>
+        <v>0.5437666004973494</v>
       </c>
       <c r="L10">
-        <v>0.2814844658952893</v>
+        <v>0.4408860499628418</v>
       </c>
       <c r="M10">
-        <v>0.3155824895114918</v>
+        <v>0.286097619734349</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.770569598654788</v>
+        <v>7.421558911596492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.441575091980297</v>
+        <v>0.8486542066331992</v>
       </c>
       <c r="C11">
-        <v>0.1220899421123391</v>
+        <v>0.06614935487024809</v>
       </c>
       <c r="D11">
-        <v>0.352486511821354</v>
+        <v>0.5261282602669866</v>
       </c>
       <c r="E11">
-        <v>0.0718670804820416</v>
+        <v>0.1648545551970546</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008304455267896842</v>
+        <v>0.002553490429313715</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8260668560320354</v>
+        <v>1.735160444320556</v>
       </c>
       <c r="J11">
-        <v>0.0297913104479246</v>
+        <v>0.06398100801670559</v>
       </c>
       <c r="K11">
-        <v>1.30369219301798</v>
+        <v>0.5682190860568994</v>
       </c>
       <c r="L11">
-        <v>0.2945032763733337</v>
+        <v>0.4429417674448501</v>
       </c>
       <c r="M11">
-        <v>0.3367792521901976</v>
+        <v>0.2910674808154923</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.814917895929824</v>
+        <v>7.408437304371802</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.478628275457794</v>
+        <v>0.8583107753023285</v>
       </c>
       <c r="C12">
-        <v>0.1242213226977213</v>
+        <v>0.06684456203518607</v>
       </c>
       <c r="D12">
-        <v>0.3580239764459208</v>
+        <v>0.5269492374129925</v>
       </c>
       <c r="E12">
-        <v>0.07223495638911714</v>
+        <v>0.1647860310867095</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008292527827758983</v>
+        <v>0.002552790038278899</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8271220533154349</v>
+        <v>1.733414297446231</v>
       </c>
       <c r="J12">
-        <v>0.02980000355274726</v>
+        <v>0.06398471806959805</v>
       </c>
       <c r="K12">
-        <v>1.33764223001603</v>
+        <v>0.5774994819125823</v>
       </c>
       <c r="L12">
-        <v>0.2994867075820196</v>
+        <v>0.4437436601788107</v>
       </c>
       <c r="M12">
-        <v>0.3448502252509087</v>
+        <v>0.2929651984188837</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.832779837011657</v>
+        <v>7.40389188522127</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.470641520689156</v>
+        <v>0.8562292798094404</v>
       </c>
       <c r="C13">
-        <v>0.1237620900202359</v>
+        <v>0.06669496186067647</v>
       </c>
       <c r="D13">
-        <v>0.3568282177194817</v>
+        <v>0.5267711104165613</v>
       </c>
       <c r="E13">
-        <v>0.07215517021308315</v>
+        <v>0.1648004848089073</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008295091841021076</v>
+        <v>0.002552940268391652</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8268847161230468</v>
+        <v>1.733786240457619</v>
       </c>
       <c r="J13">
-        <v>0.02979810749065948</v>
+        <v>0.0639839129347175</v>
       </c>
       <c r="K13">
-        <v>1.330325120269663</v>
+        <v>0.5754998665646838</v>
       </c>
       <c r="L13">
-        <v>0.298410989172595</v>
+        <v>0.4435699175924412</v>
       </c>
       <c r="M13">
-        <v>0.3431099527508508</v>
+        <v>0.2925557932276064</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.828884334150416</v>
+        <v>7.404851997377136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.444620493974213</v>
+        <v>0.849447855065705</v>
       </c>
       <c r="C14">
-        <v>0.1222652030153739</v>
+        <v>0.06620660635343256</v>
       </c>
       <c r="D14">
-        <v>0.3529406630757848</v>
+        <v>0.5261952098677796</v>
       </c>
       <c r="E14">
-        <v>0.0718970955100513</v>
+        <v>0.1648487805759231</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008303471830539974</v>
+        <v>0.002553432531905281</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.826149143903038</v>
+        <v>1.735014930621311</v>
       </c>
       <c r="J14">
-        <v>0.02979201493222927</v>
+        <v>0.06398131049108713</v>
       </c>
       <c r="K14">
-        <v>1.306482892871799</v>
+        <v>0.5689821763164105</v>
       </c>
       <c r="L14">
-        <v>0.2949121697377706</v>
+        <v>0.443007270551476</v>
       </c>
       <c r="M14">
-        <v>0.3374423420479076</v>
+        <v>0.2912232925593585</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.816365603897651</v>
+        <v>7.408054866270902</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.428701117711228</v>
+        <v>0.8452992609410046</v>
       </c>
       <c r="C15">
-        <v>0.1213488856523384</v>
+        <v>0.06590710828014323</v>
       </c>
       <c r="D15">
-        <v>0.3505686064064832</v>
+        <v>0.5258463062904752</v>
       </c>
       <c r="E15">
-        <v>0.07174063944751552</v>
+        <v>0.1648792541967783</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008308618894121942</v>
+        <v>0.002553735849909786</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8257278813808426</v>
+        <v>1.735779607348626</v>
       </c>
       <c r="J15">
-        <v>0.02978835238758926</v>
+        <v>0.0639797343220927</v>
       </c>
       <c r="K15">
-        <v>1.291894236133999</v>
+        <v>0.564992593370647</v>
       </c>
       <c r="L15">
-        <v>0.2927761343079993</v>
+        <v>0.4426656819674974</v>
       </c>
       <c r="M15">
-        <v>0.3339766686932464</v>
+        <v>0.2904091429246165</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.80883867806358</v>
+        <v>7.410071846905822</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.337754422534772</v>
+        <v>0.8216058759676628</v>
       </c>
       <c r="C16">
-        <v>0.1161056377792278</v>
+        <v>0.06418519995804672</v>
       </c>
       <c r="D16">
-        <v>0.3371121904413741</v>
+        <v>0.5239060116047654</v>
       </c>
       <c r="E16">
-        <v>0.07086846955740711</v>
+        <v>0.1650675621726343</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008338334607092846</v>
+        <v>0.002555501557912108</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8237531927879758</v>
+        <v>1.740346717820081</v>
       </c>
       <c r="J16">
-        <v>0.02976840488345989</v>
+        <v>0.06397097707293486</v>
       </c>
       <c r="K16">
-        <v>1.20851540915254</v>
+        <v>0.5421715059447934</v>
       </c>
       <c r="L16">
-        <v>0.2806409117408322</v>
+        <v>0.44075498961314</v>
       </c>
       <c r="M16">
-        <v>0.314203159283494</v>
+        <v>0.2857750377743855</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.767817101505415</v>
+        <v>7.422475721748128</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.282197016125167</v>
+        <v>0.8071431069166977</v>
       </c>
       <c r="C17">
-        <v>0.1128950539013687</v>
+        <v>0.06312387060847868</v>
       </c>
       <c r="D17">
-        <v>0.3289751595157071</v>
+        <v>0.5227685625867906</v>
       </c>
       <c r="E17">
-        <v>0.07035473537249892</v>
+        <v>0.1651953062659892</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008356764966790075</v>
+        <v>0.002556609367892356</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8229236557144972</v>
+        <v>1.74331370888553</v>
       </c>
       <c r="J17">
-        <v>0.02975707419995377</v>
+        <v>0.06396585109328257</v>
       </c>
       <c r="K17">
-        <v>1.1575501963585</v>
+        <v>0.5282090210077399</v>
       </c>
       <c r="L17">
-        <v>0.2732871511484376</v>
+        <v>0.4396247028772251</v>
       </c>
       <c r="M17">
-        <v>0.3021464547905452</v>
+        <v>0.28296034885512</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.744482049117551</v>
+        <v>7.430839839129419</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.250322557449635</v>
+        <v>0.7988512918833806</v>
       </c>
       <c r="C18">
-        <v>0.1110502323102764</v>
+        <v>0.06251158977354976</v>
       </c>
       <c r="D18">
-        <v>0.3243367528476</v>
+        <v>0.5221337953649225</v>
       </c>
       <c r="E18">
-        <v>0.07006689883031925</v>
+        <v>0.1652732812023245</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008367441113029492</v>
+        <v>0.002557255613836345</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8225829239771372</v>
+        <v>1.745080994677231</v>
       </c>
       <c r="J18">
-        <v>0.02975088163957373</v>
+        <v>0.06396299360144031</v>
       </c>
       <c r="K18">
-        <v>1.128298993935516</v>
+        <v>0.5201921108521503</v>
       </c>
       <c r="L18">
-        <v>0.2690895353925526</v>
+        <v>0.4389900107399569</v>
       </c>
       <c r="M18">
-        <v>0.2952373747140626</v>
+        <v>0.2813518174149294</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.731712012736153</v>
+        <v>7.435928181626423</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.239543733960602</v>
+        <v>0.7960484452111416</v>
       </c>
       <c r="C19">
-        <v>0.1104258856516793</v>
+        <v>0.06230396760932422</v>
       </c>
       <c r="D19">
-        <v>0.3227733006099385</v>
+        <v>0.5219222205374905</v>
       </c>
       <c r="E19">
-        <v>0.0699707392521649</v>
+        <v>0.1653004557912379</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008371068997806334</v>
+        <v>0.002557475980098457</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8224906202208047</v>
+        <v>1.745689804598555</v>
       </c>
       <c r="J19">
-        <v>0.02974883990412369</v>
+        <v>0.06396204173532105</v>
       </c>
       <c r="K19">
-        <v>1.118405304672223</v>
+        <v>0.5174801321660141</v>
       </c>
       <c r="L19">
-        <v>0.2676736834711022</v>
+        <v>0.4387777664276626</v>
       </c>
       <c r="M19">
-        <v>0.2929023431800744</v>
+        <v>0.280808987381107</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.72749828478544</v>
+        <v>7.437698686930958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.288102716653469</v>
+        <v>0.8086799254419077</v>
       </c>
       <c r="C20">
-        <v>0.113236629247325</v>
+        <v>0.06323704063527202</v>
       </c>
       <c r="D20">
-        <v>0.329836999363522</v>
+        <v>0.5228876324464125</v>
       </c>
       <c r="E20">
-        <v>0.07040862748098142</v>
+        <v>0.1651812421437242</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008354795248219862</v>
+        <v>0.00255649050198837</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8229977577548411</v>
+        <v>1.742991580895143</v>
       </c>
       <c r="J20">
-        <v>0.02975824659298354</v>
+        <v>0.0639663873681755</v>
       </c>
       <c r="K20">
-        <v>1.162968929163839</v>
+        <v>0.5296939119528474</v>
       </c>
       <c r="L20">
-        <v>0.2740666234024616</v>
+        <v>0.4397434288232631</v>
       </c>
       <c r="M20">
-        <v>0.3034272278036525</v>
+        <v>0.2832589016317826</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.746898196210225</v>
+        <v>7.429920745486385</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.452259452983782</v>
+        <v>0.8514386362396635</v>
       </c>
       <c r="C21">
-        <v>0.1227047541432853</v>
+        <v>0.06635012454096056</v>
       </c>
       <c r="D21">
-        <v>0.3540806090251891</v>
+        <v>0.5263635632472017</v>
       </c>
       <c r="E21">
-        <v>0.07197255916741341</v>
+        <v>0.1648344092842908</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008301007500597707</v>
+        <v>0.002553287568907452</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8263590704365953</v>
+        <v>1.734651519656715</v>
       </c>
       <c r="J21">
-        <v>0.02979378996474136</v>
+        <v>0.06398207116254362</v>
       </c>
       <c r="K21">
-        <v>1.313482692579413</v>
+        <v>0.5708960200940112</v>
       </c>
       <c r="L21">
-        <v>0.2959383720225333</v>
+        <v>0.4431718984172335</v>
       </c>
       <c r="M21">
-        <v>0.3391058180069351</v>
+        <v>0.2916142542775617</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.820013116270388</v>
+        <v>7.407102617671171</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.560391192915603</v>
+        <v>0.8796182839772939</v>
       </c>
       <c r="C22">
-        <v>0.1289171663223527</v>
+        <v>0.06836832198487741</v>
       </c>
       <c r="D22">
-        <v>0.3703318902037864</v>
+        <v>0.5288077994099325</v>
       </c>
       <c r="E22">
-        <v>0.0730667829869418</v>
+        <v>0.1646476373611563</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000826648890495072</v>
+        <v>0.002551274534514988</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8298563743225813</v>
+        <v>1.729741058578128</v>
       </c>
       <c r="J22">
-        <v>0.02982009880347736</v>
+        <v>0.06399312358364817</v>
       </c>
       <c r="K22">
-        <v>1.412526616854024</v>
+        <v>0.5979448204508913</v>
       </c>
       <c r="L22">
-        <v>0.310546723486226</v>
+        <v>0.44554916064628</v>
       </c>
       <c r="M22">
-        <v>0.3626839815858958</v>
+        <v>0.297166634220325</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.874058534855976</v>
+        <v>7.394657608651642</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.502595412225617</v>
+        <v>0.8645570337131687</v>
       </c>
       <c r="C23">
-        <v>0.1255988296469184</v>
+        <v>0.06729267427945729</v>
       </c>
       <c r="D23">
-        <v>0.3616193237705403</v>
+        <v>0.5274875184013297</v>
       </c>
       <c r="E23">
-        <v>0.07247597661896599</v>
+        <v>0.1647436779908702</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008284855927138014</v>
+        <v>0.002552341605342336</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8278664581683657</v>
+        <v>1.732312466240273</v>
       </c>
       <c r="J23">
-        <v>0.02980576578751482</v>
+        <v>0.06398715162438773</v>
       </c>
       <c r="K23">
-        <v>1.359597384915247</v>
+        <v>0.5834974696295774</v>
       </c>
       <c r="L23">
-        <v>0.3027198188279385</v>
+        <v>0.4442679118535295</v>
       </c>
       <c r="M23">
-        <v>0.3500744485745528</v>
+        <v>0.2941948830154999</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.844617482973831</v>
+        <v>7.40107408799517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.285432544513696</v>
+        <v>0.8079850580254799</v>
       </c>
       <c r="C24">
-        <v>0.1130822000513234</v>
+        <v>0.06318588303324191</v>
       </c>
       <c r="D24">
-        <v>0.3294472383443718</v>
+        <v>0.5228337412508779</v>
       </c>
       <c r="E24">
-        <v>0.07038423949089356</v>
+        <v>0.165187586411335</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008355685508079085</v>
+        <v>0.002556544212284149</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8229638329800153</v>
+        <v>1.743137023307597</v>
       </c>
       <c r="J24">
-        <v>0.02975771555435003</v>
+        <v>0.06396614463955341</v>
       </c>
       <c r="K24">
-        <v>1.160518967522506</v>
+        <v>0.5290225606112244</v>
       </c>
       <c r="L24">
-        <v>0.273714130363075</v>
+        <v>0.4396897057032589</v>
       </c>
       <c r="M24">
-        <v>0.3028481206502747</v>
+        <v>0.2831238957878384</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.745803850165913</v>
+        <v>7.43033539642218</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.054208322994498</v>
+        <v>0.7479894034817391</v>
       </c>
       <c r="C25">
-        <v>0.09964658630509859</v>
+        <v>0.05868601748710489</v>
       </c>
       <c r="D25">
-        <v>0.2963250270691447</v>
+        <v>0.5185584586656518</v>
       </c>
       <c r="E25">
-        <v>0.06841841119631731</v>
+        <v>0.1658385532031446</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008434992158090077</v>
+        <v>0.002561424172033732</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8228473277975539</v>
+        <v>1.757136132662446</v>
       </c>
       <c r="J25">
-        <v>0.02971820689068227</v>
+        <v>0.06394696202539496</v>
       </c>
       <c r="K25">
-        <v>0.9481170701043879</v>
+        <v>0.4707973277825488</v>
       </c>
       <c r="L25">
-        <v>0.2436387759088774</v>
+        <v>0.4353412794856126</v>
       </c>
       <c r="M25">
-        <v>0.2528701865038236</v>
+        <v>0.2715803025996877</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.663903525515735</v>
+        <v>7.472510664147251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_197/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7047088305883165</v>
+        <v>0.8859010101983813</v>
       </c>
       <c r="C2">
-        <v>0.05531215961917724</v>
+        <v>0.08976886320053268</v>
       </c>
       <c r="D2">
-        <v>0.5160540542205894</v>
+        <v>0.2731224196352713</v>
       </c>
       <c r="E2">
-        <v>0.166466822983935</v>
+        <v>0.06720087172972988</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002565318543423551</v>
+        <v>0.0008496080123337198</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.769446562148353</v>
+        <v>0.8267907387707041</v>
       </c>
       <c r="J2">
-        <v>0.06393585962438664</v>
+        <v>0.02969882972471183</v>
       </c>
       <c r="K2">
-        <v>0.4283934247583829</v>
+        <v>0.7931353954470524</v>
       </c>
       <c r="L2">
-        <v>0.4326497763752783</v>
+        <v>0.2223938360876474</v>
       </c>
       <c r="M2">
-        <v>0.2634262287300082</v>
+        <v>0.2167361196823805</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>7.512710118798338</v>
+        <v>3.622591255315029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6759414607001304</v>
+        <v>0.7727523210768368</v>
       </c>
       <c r="C3">
-        <v>0.05298769355981392</v>
+        <v>0.08306532105218878</v>
       </c>
       <c r="D3">
-        <v>0.5147598999010512</v>
+        <v>0.2580575496323547</v>
       </c>
       <c r="E3">
-        <v>0.1669860101378031</v>
+        <v>0.0665100375516694</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002568147267074873</v>
+        <v>0.0008539251698514123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.779041509962653</v>
+        <v>0.831785785875816</v>
       </c>
       <c r="J3">
-        <v>0.06393023730926828</v>
+        <v>0.02969137508249808</v>
       </c>
       <c r="K3">
-        <v>0.3999517337794174</v>
+        <v>0.6887105734990087</v>
       </c>
       <c r="L3">
-        <v>0.4311455799168655</v>
+        <v>0.2084920172598927</v>
       </c>
       <c r="M3">
-        <v>0.2581172831593364</v>
+        <v>0.1925878951936788</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.545669195372938</v>
+        <v>3.605420058230749</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.658559278395245</v>
+        <v>0.7036405628444413</v>
       </c>
       <c r="C4">
-        <v>0.05154171224981496</v>
+        <v>0.07893917527250238</v>
       </c>
       <c r="D4">
-        <v>0.5141647700995122</v>
+        <v>0.249108842132614</v>
       </c>
       <c r="E4">
-        <v>0.1673510313855324</v>
+        <v>0.06614932508387028</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002569978076573484</v>
+        <v>0.0008566661086922006</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.785551347098846</v>
+        <v>0.8359399149817968</v>
       </c>
       <c r="J4">
-        <v>0.06392772947632075</v>
+        <v>0.02968948745963473</v>
       </c>
       <c r="K4">
-        <v>0.3826363336771266</v>
+        <v>0.6248116103476065</v>
       </c>
       <c r="L4">
-        <v>0.4303803731871554</v>
+        <v>0.2001812128028249</v>
       </c>
       <c r="M4">
-        <v>0.2549653554539937</v>
+        <v>0.1779061507135253</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.568729202445525</v>
+        <v>3.599905337285804</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6515471687336856</v>
+        <v>0.6755559980337296</v>
       </c>
       <c r="C5">
-        <v>0.05094775534919194</v>
+        <v>0.07725444153508931</v>
       </c>
       <c r="D5">
-        <v>0.5139725344370589</v>
+        <v>0.2455345678551453</v>
       </c>
       <c r="E5">
-        <v>0.1675114340736137</v>
+        <v>0.06601790380962314</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002570747844054146</v>
+        <v>0.0008578061289079564</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.78835983004538</v>
+        <v>0.8378979181455506</v>
       </c>
       <c r="J5">
-        <v>0.06392694601569548</v>
+        <v>0.02968937967960805</v>
       </c>
       <c r="K5">
-        <v>0.375617817865276</v>
+        <v>0.5988162152519578</v>
       </c>
       <c r="L5">
-        <v>0.4301084824219146</v>
+        <v>0.1968483600887367</v>
       </c>
       <c r="M5">
-        <v>0.2537081612777641</v>
+        <v>0.1719567381076992</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.578836861512031</v>
+        <v>3.598878882240399</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6503871351341672</v>
+        <v>0.6708970135047139</v>
       </c>
       <c r="C6">
-        <v>0.05084884512908161</v>
+        <v>0.0769744728122248</v>
       </c>
       <c r="D6">
-        <v>0.5139436545113512</v>
+        <v>0.244945340443266</v>
       </c>
       <c r="E6">
-        <v>0.1675387734466902</v>
+        <v>0.06599701098137878</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002570877096760862</v>
+        <v>0.0008579968324401999</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.788835582929291</v>
+        <v>0.8382388258131108</v>
       </c>
       <c r="J6">
-        <v>0.06392683035859648</v>
+        <v>0.02968940132118902</v>
       </c>
       <c r="K6">
-        <v>0.3744546861184261</v>
+        <v>0.5945020462230843</v>
       </c>
       <c r="L6">
-        <v>0.4300657505827061</v>
+        <v>0.196298119552047</v>
       </c>
       <c r="M6">
-        <v>0.2535010545641043</v>
+        <v>0.1709707814591184</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.580558163427241</v>
+        <v>3.598780942160573</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6584644212804562</v>
+        <v>0.7032614999193925</v>
       </c>
       <c r="C7">
-        <v>0.05153372099240272</v>
+        <v>0.0789164686609638</v>
       </c>
       <c r="D7">
-        <v>0.514161973778954</v>
+        <v>0.249060349379576</v>
       </c>
       <c r="E7">
-        <v>0.1673531474118519</v>
+        <v>0.06614749013663612</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002569988362025823</v>
+        <v>0.0008566813895171827</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.785588592784546</v>
+        <v>0.8359652582176302</v>
       </c>
       <c r="J7">
-        <v>0.06392771794362684</v>
+        <v>0.02968948334663057</v>
       </c>
       <c r="K7">
-        <v>0.3825415264671079</v>
+        <v>0.6244608634154218</v>
       </c>
       <c r="L7">
-        <v>0.4303765445194969</v>
+        <v>0.2001360501472078</v>
       </c>
       <c r="M7">
-        <v>0.2549482900082296</v>
+        <v>0.1778257830354839</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.568862640150172</v>
+        <v>3.599886607046813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6947318400091547</v>
+        <v>0.8468047520740356</v>
       </c>
       <c r="C8">
-        <v>0.05451457880499078</v>
+        <v>0.08745912260999944</v>
       </c>
       <c r="D8">
-        <v>0.5155664982224692</v>
+        <v>0.2678634761527405</v>
       </c>
       <c r="E8">
-        <v>0.1666362578034413</v>
+        <v>0.06694926178618843</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002566274427981999</v>
+        <v>0.0008510780885478085</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.772626616532158</v>
+        <v>0.828282322456559</v>
       </c>
       <c r="J8">
-        <v>0.06393372568238309</v>
+        <v>0.02969569178745335</v>
       </c>
       <c r="K8">
-        <v>0.4185562941217711</v>
+        <v>0.7570775994972507</v>
       </c>
       <c r="L8">
-        <v>0.4320983244575274</v>
+        <v>0.2175521219279517</v>
       </c>
       <c r="M8">
-        <v>0.2615734138294705</v>
+        <v>0.2083777563797256</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>7.523488880318183</v>
+        <v>3.615600019160951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7680610011598219</v>
+        <v>1.13175322806066</v>
       </c>
       <c r="C9">
-        <v>0.06021119973310363</v>
+        <v>0.1041674611725441</v>
       </c>
       <c r="D9">
-        <v>0.5198988579669503</v>
+        <v>0.3072870817975968</v>
       </c>
       <c r="E9">
-        <v>0.1655961962026158</v>
+        <v>0.06904362077623993</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002559733751965531</v>
+        <v>0.0008407871547018676</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.752109713258619</v>
+        <v>0.8222339657938065</v>
       </c>
       <c r="J9">
-        <v>0.06395295652128663</v>
+        <v>0.02972995170829673</v>
       </c>
       <c r="K9">
-        <v>0.4903385870037482</v>
+        <v>1.019408026677326</v>
       </c>
       <c r="L9">
-        <v>0.4367269990359972</v>
+        <v>0.2536208912062534</v>
       </c>
       <c r="M9">
-        <v>0.2754153343532906</v>
+        <v>0.2695916898608282</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.45688444170591</v>
+        <v>3.688398966322524</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8232597940341293</v>
+        <v>1.344105260754105</v>
       </c>
       <c r="C10">
-        <v>0.06430605651597432</v>
+        <v>0.116472261404013</v>
       </c>
       <c r="D10">
-        <v>0.5240384370553102</v>
+        <v>0.3380464594608696</v>
       </c>
       <c r="E10">
-        <v>0.1650535948620337</v>
+        <v>0.07092813988071534</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002555376375562239</v>
+        <v>0.0008336241680613012</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.740016392955887</v>
+        <v>0.8238666129598471</v>
       </c>
       <c r="J10">
-        <v>0.06397157426810374</v>
+        <v>0.02976974238132968</v>
       </c>
       <c r="K10">
-        <v>0.5437666004973494</v>
+        <v>1.214339765051818</v>
       </c>
       <c r="L10">
-        <v>0.4408860499628418</v>
+        <v>0.2814844658953746</v>
       </c>
       <c r="M10">
-        <v>0.286097619734349</v>
+        <v>0.3155824895114918</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>7.421558911596492</v>
+        <v>3.770569598654731</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8486542066331992</v>
+        <v>1.441575091980269</v>
       </c>
       <c r="C11">
-        <v>0.06614935487024809</v>
+        <v>0.1220899421120976</v>
       </c>
       <c r="D11">
-        <v>0.5261282602669866</v>
+        <v>0.3524865118215104</v>
       </c>
       <c r="E11">
-        <v>0.1648545551970546</v>
+        <v>0.07186708048203094</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002553490429313715</v>
+        <v>0.000830445526722862</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.735160444320556</v>
+        <v>0.8260668560320283</v>
       </c>
       <c r="J11">
-        <v>0.06398100801670559</v>
+        <v>0.02979131044797612</v>
       </c>
       <c r="K11">
-        <v>0.5682190860568994</v>
+        <v>1.303692193017923</v>
       </c>
       <c r="L11">
-        <v>0.4429417674448501</v>
+        <v>0.2945032763732911</v>
       </c>
       <c r="M11">
-        <v>0.2910674808154923</v>
+        <v>0.3367792521902047</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.408437304371802</v>
+        <v>3.814917895929739</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8583107753023285</v>
+        <v>1.478628275457851</v>
       </c>
       <c r="C12">
-        <v>0.06684456203518607</v>
+        <v>0.1242213226977213</v>
       </c>
       <c r="D12">
-        <v>0.5269492374129925</v>
+        <v>0.3580239764459776</v>
       </c>
       <c r="E12">
-        <v>0.1647860310867095</v>
+        <v>0.07223495638911714</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002552790038278899</v>
+        <v>0.0008292527828091823</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.733414297446231</v>
+        <v>0.8271220533154349</v>
       </c>
       <c r="J12">
-        <v>0.06398471806959805</v>
+        <v>0.02980000355269397</v>
       </c>
       <c r="K12">
-        <v>0.5774994819125823</v>
+        <v>1.337642230016002</v>
       </c>
       <c r="L12">
-        <v>0.4437436601788107</v>
+        <v>0.2994867075820764</v>
       </c>
       <c r="M12">
-        <v>0.2929651984188837</v>
+        <v>0.3448502252508945</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.40389188522127</v>
+        <v>3.8327798370116</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8562292798094404</v>
+        <v>1.470641520689071</v>
       </c>
       <c r="C13">
-        <v>0.06669496186067647</v>
+        <v>0.1237620900202216</v>
       </c>
       <c r="D13">
-        <v>0.5267711104165613</v>
+        <v>0.3568282177193254</v>
       </c>
       <c r="E13">
-        <v>0.1648004848089073</v>
+        <v>0.0721551702130796</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002552940268391652</v>
+        <v>0.0008295091840380448</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.733786240457619</v>
+        <v>0.8268847161230468</v>
       </c>
       <c r="J13">
-        <v>0.0639839129347175</v>
+        <v>0.02979810749063283</v>
       </c>
       <c r="K13">
-        <v>0.5754998665646838</v>
+        <v>1.330325120269748</v>
       </c>
       <c r="L13">
-        <v>0.4435699175924412</v>
+        <v>0.2984109891726092</v>
       </c>
       <c r="M13">
-        <v>0.2925557932276064</v>
+        <v>0.3431099527508366</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.404851997377136</v>
+        <v>3.828884334150445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.849447855065705</v>
+        <v>1.444620493974213</v>
       </c>
       <c r="C14">
-        <v>0.06620660635343256</v>
+        <v>0.1222652030153881</v>
       </c>
       <c r="D14">
-        <v>0.5261952098677796</v>
+        <v>0.3529406630758558</v>
       </c>
       <c r="E14">
-        <v>0.1648487805759231</v>
+        <v>0.07189709551004775</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002553432531905281</v>
+        <v>0.0008303471830238203</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.735014930621311</v>
+        <v>0.8261491439030308</v>
       </c>
       <c r="J14">
-        <v>0.06398131049108713</v>
+        <v>0.02979201493227812</v>
       </c>
       <c r="K14">
-        <v>0.5689821763164105</v>
+        <v>1.306482892871685</v>
       </c>
       <c r="L14">
-        <v>0.443007270551476</v>
+        <v>0.2949121697377564</v>
       </c>
       <c r="M14">
-        <v>0.2912232925593585</v>
+        <v>0.3374423420479005</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>7.408054866270902</v>
+        <v>3.816365603897651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8452992609410046</v>
+        <v>1.428701117711</v>
       </c>
       <c r="C15">
-        <v>0.06590710828014323</v>
+        <v>0.1213488856520684</v>
       </c>
       <c r="D15">
-        <v>0.5258463062904752</v>
+        <v>0.3505686064064832</v>
       </c>
       <c r="E15">
-        <v>0.1648792541967783</v>
+        <v>0.07174063944753861</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002553735849909786</v>
+        <v>0.000830861889479703</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.735779607348626</v>
+        <v>0.8257278813808426</v>
       </c>
       <c r="J15">
-        <v>0.0639797343220927</v>
+        <v>0.02978835238759903</v>
       </c>
       <c r="K15">
-        <v>0.564992593370647</v>
+        <v>1.291894236134027</v>
       </c>
       <c r="L15">
-        <v>0.4426656819674974</v>
+        <v>0.2927761343080135</v>
       </c>
       <c r="M15">
-        <v>0.2904091429246165</v>
+        <v>0.3339766686932393</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>7.410071846905822</v>
+        <v>3.808838678063609</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8216058759676628</v>
+        <v>1.3377544225348</v>
       </c>
       <c r="C16">
-        <v>0.06418519995804672</v>
+        <v>0.1161056377794694</v>
       </c>
       <c r="D16">
-        <v>0.5239060116047654</v>
+        <v>0.3371121904413457</v>
       </c>
       <c r="E16">
-        <v>0.1650675621726343</v>
+        <v>0.0708684695574</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002555501557912108</v>
+        <v>0.0008338334607425568</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.740346717820081</v>
+        <v>0.8237531927879616</v>
       </c>
       <c r="J16">
-        <v>0.06397097707293486</v>
+        <v>0.02976840488341281</v>
       </c>
       <c r="K16">
-        <v>0.5421715059447934</v>
+        <v>1.208515409152511</v>
       </c>
       <c r="L16">
-        <v>0.44075498961314</v>
+        <v>0.2806409117408748</v>
       </c>
       <c r="M16">
-        <v>0.2857750377743855</v>
+        <v>0.3142031592834869</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>7.422475721748128</v>
+        <v>3.767817101505386</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8071431069166977</v>
+        <v>1.282197016125139</v>
       </c>
       <c r="C17">
-        <v>0.06312387060847868</v>
+        <v>0.112895053901255</v>
       </c>
       <c r="D17">
-        <v>0.5227685625867906</v>
+        <v>0.3289751595155934</v>
       </c>
       <c r="E17">
-        <v>0.1651953062659892</v>
+        <v>0.0703547353725007</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002556609367892356</v>
+        <v>0.0008356764966792104</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.74331370888553</v>
+        <v>0.8229236557144901</v>
       </c>
       <c r="J17">
-        <v>0.06396585109328257</v>
+        <v>0.02975707419989515</v>
       </c>
       <c r="K17">
-        <v>0.5282090210077399</v>
+        <v>1.1575501963585</v>
       </c>
       <c r="L17">
-        <v>0.4396247028772251</v>
+        <v>0.2732871511483381</v>
       </c>
       <c r="M17">
-        <v>0.28296034885512</v>
+        <v>0.3021464547905452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>7.430839839129419</v>
+        <v>3.744482049117551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7988512918833806</v>
+        <v>1.250322557449579</v>
       </c>
       <c r="C18">
-        <v>0.06251158977354976</v>
+        <v>0.1110502323108733</v>
       </c>
       <c r="D18">
-        <v>0.5221337953649225</v>
+        <v>0.3243367528476142</v>
       </c>
       <c r="E18">
-        <v>0.1652732812023245</v>
+        <v>0.07006689883028372</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002557255613836345</v>
+        <v>0.0008367441112717598</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.745080994677231</v>
+        <v>0.8225829239771585</v>
       </c>
       <c r="J18">
-        <v>0.06396299360144031</v>
+        <v>0.02975088163958439</v>
       </c>
       <c r="K18">
-        <v>0.5201921108521503</v>
+        <v>1.128298993935488</v>
       </c>
       <c r="L18">
-        <v>0.4389900107399569</v>
+        <v>0.2690895353925242</v>
       </c>
       <c r="M18">
-        <v>0.2813518174149294</v>
+        <v>0.2952373747140769</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>7.435928181626423</v>
+        <v>3.731712012736153</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7960484452111416</v>
+        <v>1.23954373396046</v>
       </c>
       <c r="C19">
-        <v>0.06230396760932422</v>
+        <v>0.1104258856515372</v>
       </c>
       <c r="D19">
-        <v>0.5219222205374905</v>
+        <v>0.3227733006100095</v>
       </c>
       <c r="E19">
-        <v>0.1653004557912379</v>
+        <v>0.06997073925217201</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002557475980098457</v>
+        <v>0.0008371068997471865</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.745689804598555</v>
+        <v>0.8224906202208118</v>
       </c>
       <c r="J19">
-        <v>0.06396204173532105</v>
+        <v>0.02974883990408106</v>
       </c>
       <c r="K19">
-        <v>0.5174801321660141</v>
+        <v>1.118405304672223</v>
       </c>
       <c r="L19">
-        <v>0.4387777664276626</v>
+        <v>0.267673683471088</v>
       </c>
       <c r="M19">
-        <v>0.280808987381107</v>
+        <v>0.2929023431800459</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>7.437698686930958</v>
+        <v>3.727498284785497</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8086799254419077</v>
+        <v>1.288102716653356</v>
       </c>
       <c r="C20">
-        <v>0.06323704063527202</v>
+        <v>0.1132366292473392</v>
       </c>
       <c r="D20">
-        <v>0.5228876324464125</v>
+        <v>0.3298369993635077</v>
       </c>
       <c r="E20">
-        <v>0.1651812421437242</v>
+        <v>0.07040862748098142</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00255649050198837</v>
+        <v>0.0008354795248526278</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.742991580895143</v>
+        <v>0.8229977577548553</v>
       </c>
       <c r="J20">
-        <v>0.0639663873681755</v>
+        <v>0.02975824659299242</v>
       </c>
       <c r="K20">
-        <v>0.5296939119528474</v>
+        <v>1.162968929163839</v>
       </c>
       <c r="L20">
-        <v>0.4397434288232631</v>
+        <v>0.2740666234024758</v>
       </c>
       <c r="M20">
-        <v>0.2832589016317826</v>
+        <v>0.3034272278036454</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.429920745486385</v>
+        <v>3.746898196210225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8514386362396635</v>
+        <v>1.452259452983782</v>
       </c>
       <c r="C21">
-        <v>0.06635012454096056</v>
+        <v>0.1227047541431716</v>
       </c>
       <c r="D21">
-        <v>0.5263635632472017</v>
+        <v>0.3540806090251891</v>
       </c>
       <c r="E21">
-        <v>0.1648344092842908</v>
+        <v>0.07197255916742407</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002553287568907452</v>
+        <v>0.0008301007500345033</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.734651519656715</v>
+        <v>0.8263590704365811</v>
       </c>
       <c r="J21">
-        <v>0.06398207116254362</v>
+        <v>0.02979378996477067</v>
       </c>
       <c r="K21">
-        <v>0.5708960200940112</v>
+        <v>1.313482692579555</v>
       </c>
       <c r="L21">
-        <v>0.4431718984172335</v>
+        <v>0.2959383720224906</v>
       </c>
       <c r="M21">
-        <v>0.2916142542775617</v>
+        <v>0.3391058180069422</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>7.407102617671171</v>
+        <v>3.820013116270445</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8796182839772939</v>
+        <v>1.560391192915489</v>
       </c>
       <c r="C22">
-        <v>0.06836832198487741</v>
+        <v>0.1289171663223385</v>
       </c>
       <c r="D22">
-        <v>0.5288077994099325</v>
+        <v>0.3703318902037296</v>
       </c>
       <c r="E22">
-        <v>0.1646476373611563</v>
+        <v>0.0730667829869418</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002551274534514988</v>
+        <v>0.0008266488904317026</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.729741058578128</v>
+        <v>0.8298563743225813</v>
       </c>
       <c r="J22">
-        <v>0.06399312358364817</v>
+        <v>0.02982009880354397</v>
       </c>
       <c r="K22">
-        <v>0.5979448204508913</v>
+        <v>1.412526616853938</v>
       </c>
       <c r="L22">
-        <v>0.44554916064628</v>
+        <v>0.3105467234862545</v>
       </c>
       <c r="M22">
-        <v>0.297166634220325</v>
+        <v>0.3626839815858744</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.394657608651642</v>
+        <v>3.874058534855862</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8645570337131687</v>
+        <v>1.502595412225645</v>
       </c>
       <c r="C23">
-        <v>0.06729267427945729</v>
+        <v>0.1255988296470321</v>
       </c>
       <c r="D23">
-        <v>0.5274875184013297</v>
+        <v>0.3616193237707535</v>
       </c>
       <c r="E23">
-        <v>0.1647436779908702</v>
+        <v>0.07247597661897665</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002552341605342336</v>
+        <v>0.0008284855927077565</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.732312466240273</v>
+        <v>0.8278664581683941</v>
       </c>
       <c r="J23">
-        <v>0.06398715162438773</v>
+        <v>0.02980576578748995</v>
       </c>
       <c r="K23">
-        <v>0.5834974696295774</v>
+        <v>1.35959738491519</v>
       </c>
       <c r="L23">
-        <v>0.4442679118535295</v>
+        <v>0.3027198188280096</v>
       </c>
       <c r="M23">
-        <v>0.2941948830154999</v>
+        <v>0.3500744485745315</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.40107408799517</v>
+        <v>3.844617482973803</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8079850580254799</v>
+        <v>1.285432544513498</v>
       </c>
       <c r="C24">
-        <v>0.06318588303324191</v>
+        <v>0.1130822000514229</v>
       </c>
       <c r="D24">
-        <v>0.5228337412508779</v>
+        <v>0.329447238344315</v>
       </c>
       <c r="E24">
-        <v>0.165187586411335</v>
+        <v>0.0703842394908829</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002556544212284149</v>
+        <v>0.0008355685507753214</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.743137023307597</v>
+        <v>0.8229638329800224</v>
       </c>
       <c r="J24">
-        <v>0.06396614463955341</v>
+        <v>0.02975771555441931</v>
       </c>
       <c r="K24">
-        <v>0.5290225606112244</v>
+        <v>1.160518967522506</v>
       </c>
       <c r="L24">
-        <v>0.4396897057032589</v>
+        <v>0.2737141303631319</v>
       </c>
       <c r="M24">
-        <v>0.2831238957878384</v>
+        <v>0.3028481206502818</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.43033539642218</v>
+        <v>3.745803850165942</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7479894034817391</v>
+        <v>1.054208322994526</v>
       </c>
       <c r="C25">
-        <v>0.05868601748710489</v>
+        <v>0.09964658630509859</v>
       </c>
       <c r="D25">
-        <v>0.5185584586656518</v>
+        <v>0.2963250270691304</v>
       </c>
       <c r="E25">
-        <v>0.1658385532031446</v>
+        <v>0.06841841119632797</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002561424172033732</v>
+        <v>0.000843499215808239</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.757136132662446</v>
+        <v>0.8228473277975326</v>
       </c>
       <c r="J25">
-        <v>0.06394696202539496</v>
+        <v>0.0297182068907258</v>
       </c>
       <c r="K25">
-        <v>0.4707973277825488</v>
+        <v>0.9481170701043595</v>
       </c>
       <c r="L25">
-        <v>0.4353412794856126</v>
+        <v>0.2436387759088774</v>
       </c>
       <c r="M25">
-        <v>0.2715803025996877</v>
+        <v>0.2528701865038308</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.472510664147251</v>
+        <v>3.66390352551565</v>
       </c>
     </row>
   </sheetData>
